--- a/Código/Grafo.xlsx
+++ b/Código/Grafo.xlsx
@@ -569,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:BY77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:BI3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="BW11" sqref="BW11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
